--- a/doc/druid.xlsx
+++ b/doc/druid.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="druid" sheetId="1" r:id="rId1"/>
-    <sheet name="spring" sheetId="2" r:id="rId2"/>
-    <sheet name="beanFactory" sheetId="3" r:id="rId3"/>
+    <sheet name="factory" sheetId="2" r:id="rId2"/>
+    <sheet name="bean" sheetId="3" r:id="rId3"/>
+    <sheet name="自定义标签" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>类关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +122,62 @@
   </si>
   <si>
     <t>启动解析过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.编写xsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.实现BeanDefinitionParser接口实现解析赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.扩展NamespaceHandlerSupport接口实现组件注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.编写spring.handlers spring.schemes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义标签实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aop实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> String namespaceUri = this.getNamespaceURI(ele);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据配置获取到URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取命名空间和Handler关系，保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取handler和解析实现关系，保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析自定义标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultBeanDefinitionDocumentReader.parseCustomElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XmlBeanDefinitionReader.registerBeanDefinitions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractBeanDefinitionReader.loadBeanDefinitions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10650,8 +10707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K2:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10681,8 +10738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="N219" sqref="N219"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10691,4 +10748,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="66.375" customWidth="1"/>
+    <col min="6" max="6" width="57.75" customWidth="1"/>
+    <col min="7" max="7" width="52.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/druid.xlsx
+++ b/doc/druid.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="druid" sheetId="1" r:id="rId1"/>
     <sheet name="factory" sheetId="2" r:id="rId2"/>
     <sheet name="bean" sheetId="3" r:id="rId3"/>
     <sheet name="自定义标签" sheetId="4" r:id="rId4"/>
+    <sheet name="注解" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>类关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.扩展NamespaceHandlerSupport接口实现组件注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.编写spring.handlers spring.schemes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,7 +166,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DefaultBeanDefinitionDocumentReader.parseCustomElement</t>
+    <t>3.扩展NamespaceHandlerSupport接口实现组件注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractBeanDefinitionReader.loadBeanDefinitions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,7 +178,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AbstractBeanDefinitionReader.loadBeanDefinitions</t>
+    <t>DefaultBeanDefinitionDocumentReader.parseCustomElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动类Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringApplication.run(StudyApplication.class, args);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringApplication.ConfigurableApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringApplication.prepareContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringApplication.refreshContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractApplicationContext.prepareRefresh();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurableListableBeanFactory beanFactory = obtainFreshBeanFactory();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this.beanFactory.setSerializationId(getId());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepareBeanFactory(beanFactory);</t>
+  </si>
+  <si>
+    <t>invokeBeanFactoryPostProcessors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationWarningsApplicationContextInitializer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10707,7 +10755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
@@ -10755,7 +10803,7 @@
   <dimension ref="E2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10767,10 +10815,10 @@
   <sheetData>
     <row r="2" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="5:7" x14ac:dyDescent="0.15">
@@ -10785,17 +10833,17 @@
     </row>
     <row r="6" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.15">
@@ -10805,30 +10853,104 @@
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D6:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="72.875" customWidth="1"/>
+    <col min="5" max="5" width="57.5" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/doc/druid.xlsx
+++ b/doc/druid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="druid" sheetId="1" r:id="rId1"/>
@@ -10130,9 +10130,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10142,7 +10142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3638550" y="39528749"/>
-          <a:ext cx="3590925" cy="2257425"/>
+          <a:ext cx="3571875" cy="3238501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10274,6 +10274,96 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr latinLnBrk="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>在实例化的过程中：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Constructor &gt; @PostConstruct &gt;InitializingBean &gt; init-method</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr latinLnBrk="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>在销毁的过程中：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@PreDestroy &gt; DisposableBean &gt; destroy-method</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -10281,7 +10371,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>633413</xdr:colOff>
+      <xdr:colOff>623888</xdr:colOff>
       <xdr:row>225</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -10301,8 +10391,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5434013" y="38576250"/>
-          <a:ext cx="85725" cy="952499"/>
+          <a:off x="5424488" y="38576250"/>
+          <a:ext cx="95250" cy="952499"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10786,8 +10876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="M246" sqref="M246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10890,7 +10980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
